--- a/ver0.1.5/assess-list-2023-08-28.xlsx
+++ b/ver0.1.5/assess-list-2023-08-28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choom\Documents\wk31\oms\docs\oms-draft\ver0.1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA57A9C9-429A-4990-94F4-F40461B18BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B18950-0CD6-40E0-A357-BA4FFB9B382A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="90" windowWidth="25770" windowHeight="15450" activeTab="2" xr2:uid="{A3A49B28-58DD-42C6-A8D3-EF70244151AF}"/>
   </bookViews>
@@ -2201,21 +2201,6 @@
     <t>มีรายละเอียดการบริหารความเสี่ยงในการปฏิบัติงานที่ชัดเจนและสมเหตุสมผล</t>
   </si>
   <si>
-    <t>มีรายละเอียดแผนการสนับสนุนการใช้งานที่ชัดเจนและสมเหตุสมผล</t>
-  </si>
-  <si>
-    <t>มีแผนระยะเวลากิจกรรมสนับสนุนการใช้งานที่ชัดเจนและสมเหตุสมผล</t>
-  </si>
-  <si>
-    <t>มีแผนบุคลาการปฏิบัติการสนับสนุนการใช้งานที่ชัดเจนและสมเหตุสมผล</t>
-  </si>
-  <si>
-    <t>มีแผนการติดตามผลการทำงานการสนับสนุนการใช้งานที่ชัดเจนและสมเหตุสมผล</t>
-  </si>
-  <si>
-    <t>มีแผนการบริหารความเสี่ยงการสนับสนุนการใช้งานที่ชัดเจนและสมเหตุสมผล</t>
-  </si>
-  <si>
     <t>มีรายละเอียดแผนการบำรุงรักษาฮาร์ดแวร์ที่ชัดเจนและสมเหตุสมผล</t>
   </si>
   <si>
@@ -2474,13 +2459,28 @@
     <t>สนับสนุนการใช้งาน</t>
   </si>
   <si>
-    <t>Compliance</t>
-  </si>
-  <si>
-    <t>Non-compliance</t>
-  </si>
-  <si>
-    <t>Alternative</t>
+    <t>C: Compliance</t>
+  </si>
+  <si>
+    <t>N: Non-compliance</t>
+  </si>
+  <si>
+    <t>A: Alternative</t>
+  </si>
+  <si>
+    <t>มีรายละเอียดแผนการสนับสนุนการใช้งานที่ชัดเจน</t>
+  </si>
+  <si>
+    <t>มีแผนระยะเวลากิจกรรมสนับสนุนการใช้งานที่ชัดเจน</t>
+  </si>
+  <si>
+    <t>มีแผนบุคลาการปฏิบัติการสนับสนุนการใช้งานที่ชัดเจน</t>
+  </si>
+  <si>
+    <t>มีแผนการติดตามผลการทำงานการสนับสนุนการใช้งานที่ชัดเจน</t>
+  </si>
+  <si>
+    <t>มีแผนการบริหารความเสี่ยงการสนับสนุนการใช้งานที่ชัดเจน</t>
   </si>
 </sst>
 </file>
@@ -2904,16 +2904,16 @@
   <dimension ref="B2:G372"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+      <selection activeCell="F3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2936,13 +2936,13 @@
         <v>599</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>600</v>
@@ -7364,16 +7364,16 @@
   <dimension ref="B2:G372"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7396,13 +7396,13 @@
         <v>599</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>687</v>
@@ -9888,8 +9888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF559B5-9F69-43F0-A105-F882465E20C7}">
   <dimension ref="B3:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9908,7 +9908,7 @@
         <v>599</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>687</v>
@@ -9931,7 +9931,7 @@
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -9941,7 +9941,7 @@
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -9951,7 +9951,7 @@
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -9961,7 +9961,7 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -9971,7 +9971,7 @@
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -10091,7 +10091,7 @@
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -10153,7 +10153,7 @@
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="4" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -10197,7 +10197,7 @@
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="4" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -10205,7 +10205,7 @@
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
-        <v>720</v>
+        <v>809</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
@@ -10215,7 +10215,7 @@
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="4" t="s">
-        <v>721</v>
+        <v>810</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
@@ -10225,7 +10225,7 @@
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="4" t="s">
-        <v>722</v>
+        <v>811</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
@@ -10235,7 +10235,7 @@
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="4" t="s">
-        <v>723</v>
+        <v>812</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
@@ -10245,7 +10245,7 @@
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="4" t="s">
-        <v>724</v>
+        <v>813</v>
       </c>
       <c r="D41" s="5">
         <v>1</v>
@@ -10267,7 +10267,7 @@
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="4" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
@@ -10277,7 +10277,7 @@
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="4" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
@@ -10287,7 +10287,7 @@
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="4" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -10297,7 +10297,7 @@
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="4" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D47" s="5">
         <v>1</v>
@@ -10307,7 +10307,7 @@
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="4" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
@@ -10329,7 +10329,7 @@
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="4" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D51" s="5">
         <v>1</v>
@@ -10339,7 +10339,7 @@
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="4" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
@@ -10349,7 +10349,7 @@
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="4" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D53" s="5">
         <v>1</v>
@@ -10359,7 +10359,7 @@
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="4" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D54" s="5">
         <v>1</v>
@@ -10369,7 +10369,7 @@
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="4" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D55" s="5">
         <v>1</v>
@@ -10642,6 +10642,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10697,28 +10698,28 @@
         <v>599</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>802</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>806</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -10735,10 +10736,10 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
@@ -10753,10 +10754,10 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -10771,10 +10772,10 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -10789,10 +10790,10 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -10805,10 +10806,10 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -10823,10 +10824,10 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
@@ -10841,10 +10842,10 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
@@ -10859,10 +10860,10 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -10875,10 +10876,10 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
@@ -10893,10 +10894,10 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -10917,10 +10918,10 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -10941,10 +10942,10 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -10957,10 +10958,10 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
@@ -10975,10 +10976,10 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
@@ -10993,10 +10994,10 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9">
@@ -11011,10 +11012,10 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -11035,10 +11036,10 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -11059,10 +11060,10 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -11075,10 +11076,10 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
@@ -11093,10 +11094,10 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9">
@@ -11111,10 +11112,10 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="D25" s="9">
         <v>1</v>
@@ -11129,10 +11130,10 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
@@ -11147,10 +11148,10 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -11163,10 +11164,10 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -11179,10 +11180,10 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="D29" s="9">
         <v>1</v>
@@ -11197,10 +11198,10 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -11225,10 +11226,10 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="D31" s="9">
         <v>1</v>
@@ -11243,10 +11244,10 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -11271,10 +11272,10 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D33" s="9">
         <v>1</v>
@@ -11288,10 +11289,10 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
